--- a/字符表/Excel版/二级字符表.xlsx
+++ b/字符表/Excel版/二级字符表.xlsx
@@ -3,9 +3,9 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="27425"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7EC46BBF-70A7-4146-A68C-08BCD74E33F9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{84172065-2531-424A-B35D-CB230F369E56}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="单字节" sheetId="1" r:id="rId1"/>
@@ -17,7 +17,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="504" uniqueCount="480">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="505" uniqueCount="481">
   <si>
     <t></t>
   </si>
@@ -1723,6 +1723,10 @@
   </si>
   <si>
     <t>角</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>单字节</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -1730,7 +1734,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="5" x14ac:knownFonts="1">
+  <fonts count="6" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -1754,20 +1758,29 @@
     </font>
     <font>
       <b/>
-      <sz val="20"/>
+      <sz val="14"/>
       <name val="ClassWiz X Display"/>
       <family val="3"/>
       <charset val="134"/>
     </font>
     <font>
-      <sz val="11"/>
+      <b/>
+      <sz val="14"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <family val="2"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="14"/>
       <name val="宋体"/>
       <family val="2"/>
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="4">
+  <fills count="5">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -1786,6 +1799,12 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="0" tint="-0.14999847407452621"/>
+        <bgColor theme="1"/>
+      </patternFill>
+    </fill>
   </fills>
   <borders count="22">
     <border>
@@ -1797,16 +1816,240 @@
     </border>
     <border>
       <left style="thin">
-        <color theme="1"/>
+        <color indexed="64"/>
       </left>
       <right style="thin">
-        <color theme="1"/>
+        <color indexed="64"/>
       </right>
-      <top style="medium">
-        <color theme="1"/>
+      <top style="thin">
+        <color indexed="64"/>
       </top>
-      <bottom style="medium">
-        <color theme="1"/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thick">
+        <color indexed="64"/>
+      </left>
+      <right style="thick">
+        <color indexed="64"/>
+      </right>
+      <top style="thick">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thick">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thick">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thick">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thick">
+        <color indexed="64"/>
+      </right>
+      <top style="thick">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thick">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thick">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thick">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thick">
+        <color indexed="64"/>
+      </left>
+      <right style="thick">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thick">
+        <color indexed="64"/>
+      </left>
+      <right style="thick">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thick">
+        <color indexed="64"/>
+      </left>
+      <right style="thick">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thick">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thick">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thick">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thick">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thick">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thick">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thick">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thick">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thick">
+        <color indexed="64"/>
       </bottom>
       <diagonal/>
     </border>
@@ -1815,20 +2058,33 @@
       <right style="thin">
         <color theme="1"/>
       </right>
-      <top style="medium">
-        <color theme="1"/>
+      <top style="thick">
+        <color indexed="64"/>
       </top>
-      <bottom style="medium">
-        <color theme="1"/>
+      <bottom style="thick">
+        <color indexed="64"/>
       </bottom>
       <diagonal/>
     </border>
     <border>
-      <left style="thin">
-        <color theme="1"/>
+      <left/>
+      <right style="thick">
+        <color indexed="64"/>
+      </right>
+      <top style="thick">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thick">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thick">
+        <color indexed="64"/>
       </left>
-      <right style="thin">
-        <color theme="1"/>
+      <right style="thick">
+        <color indexed="64"/>
       </right>
       <top/>
       <bottom style="thin">
@@ -1837,254 +2093,15 @@
       <diagonal/>
     </border>
     <border>
-      <left style="thin">
-        <color theme="1"/>
+      <left style="thick">
+        <color indexed="64"/>
       </left>
-      <right style="thin">
-        <color theme="1"/>
+      <right style="thick">
+        <color indexed="64"/>
       </right>
       <top/>
-      <bottom style="medium">
-        <color theme="1"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color indexed="64"/>
-      </left>
-      <right style="thin">
-        <color indexed="64"/>
-      </right>
-      <top style="thin">
-        <color indexed="64"/>
-      </top>
-      <bottom style="thin">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color indexed="64"/>
-      </left>
-      <right style="thin">
-        <color indexed="64"/>
-      </right>
-      <top/>
-      <bottom style="thin">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thick">
-        <color indexed="64"/>
-      </left>
-      <right style="thick">
-        <color indexed="64"/>
-      </right>
-      <top style="thick">
-        <color indexed="64"/>
-      </top>
       <bottom style="thick">
         <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color indexed="64"/>
-      </left>
-      <right style="thin">
-        <color indexed="64"/>
-      </right>
-      <top style="thick">
-        <color indexed="64"/>
-      </top>
-      <bottom style="thick">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color indexed="64"/>
-      </left>
-      <right style="thick">
-        <color indexed="64"/>
-      </right>
-      <top style="thick">
-        <color indexed="64"/>
-      </top>
-      <bottom style="thick">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right style="thin">
-        <color indexed="64"/>
-      </right>
-      <top style="thick">
-        <color indexed="64"/>
-      </top>
-      <bottom style="thick">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right style="thin">
-        <color indexed="64"/>
-      </right>
-      <top/>
-      <bottom style="thin">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right style="thin">
-        <color indexed="64"/>
-      </right>
-      <top style="thin">
-        <color indexed="64"/>
-      </top>
-      <bottom style="thin">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thick">
-        <color indexed="64"/>
-      </left>
-      <right style="thick">
-        <color indexed="64"/>
-      </right>
-      <top/>
-      <bottom style="thin">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thick">
-        <color indexed="64"/>
-      </left>
-      <right style="thick">
-        <color indexed="64"/>
-      </right>
-      <top style="thin">
-        <color indexed="64"/>
-      </top>
-      <bottom style="thin">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thick">
-        <color indexed="64"/>
-      </left>
-      <right style="thick">
-        <color indexed="64"/>
-      </right>
-      <top style="thin">
-        <color indexed="64"/>
-      </top>
-      <bottom style="thick">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thick">
-        <color indexed="64"/>
-      </left>
-      <right style="thin">
-        <color indexed="64"/>
-      </right>
-      <top style="thin">
-        <color indexed="64"/>
-      </top>
-      <bottom style="thick">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color indexed="64"/>
-      </left>
-      <right style="thin">
-        <color indexed="64"/>
-      </right>
-      <top style="thin">
-        <color indexed="64"/>
-      </top>
-      <bottom style="thick">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color indexed="64"/>
-      </left>
-      <right style="thick">
-        <color indexed="64"/>
-      </right>
-      <top/>
-      <bottom style="thin">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color indexed="64"/>
-      </left>
-      <right style="thick">
-        <color indexed="64"/>
-      </right>
-      <top style="thin">
-        <color indexed="64"/>
-      </top>
-      <bottom style="thin">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color indexed="64"/>
-      </left>
-      <right style="thick">
-        <color indexed="64"/>
-      </right>
-      <top style="thin">
-        <color indexed="64"/>
-      </top>
-      <bottom style="thick">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right style="thin">
-        <color indexed="64"/>
-      </right>
-      <top style="medium">
-        <color theme="1"/>
-      </top>
-      <bottom style="medium">
-        <color theme="1"/>
       </bottom>
       <diagonal/>
     </border>
@@ -2094,77 +2111,80 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="24">
+  <cellXfs count="25">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="3" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="3" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="2" fillId="3" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -2478,68 +2498,73 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:Q18"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="C4" sqref="C4"/>
+    <sheetView zoomScale="76" zoomScaleNormal="76" workbookViewId="0">
+      <selection activeCell="D7" sqref="D7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="7.77734375" defaultRowHeight="28.95" customHeight="1" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="7.77734375" style="12"/>
+  </cols>
   <sheetData>
-    <row r="1" spans="1:17" ht="28.95" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A1" s="7"/>
-      <c r="B1" s="6">
+    <row r="1" spans="1:17" s="12" customFormat="1" ht="30" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A1" s="11" t="s">
+        <v>480</v>
+      </c>
+      <c r="B1" s="13">
         <v>0</v>
       </c>
-      <c r="C1" s="4">
+      <c r="C1" s="14">
         <v>1</v>
       </c>
-      <c r="D1" s="4">
+      <c r="D1" s="14">
         <v>2</v>
       </c>
-      <c r="E1" s="4">
+      <c r="E1" s="14">
         <v>3</v>
       </c>
-      <c r="F1" s="4">
+      <c r="F1" s="14">
         <v>4</v>
       </c>
-      <c r="G1" s="4">
+      <c r="G1" s="14">
         <v>5</v>
       </c>
-      <c r="H1" s="4">
+      <c r="H1" s="14">
         <v>6</v>
       </c>
-      <c r="I1" s="4">
+      <c r="I1" s="14">
         <v>7</v>
       </c>
-      <c r="J1" s="4">
+      <c r="J1" s="14">
         <v>8</v>
       </c>
-      <c r="K1" s="4">
+      <c r="K1" s="14">
         <v>9</v>
       </c>
-      <c r="L1" s="4" t="s">
+      <c r="L1" s="14" t="s">
         <v>0</v>
       </c>
-      <c r="M1" s="4" t="s">
+      <c r="M1" s="14" t="s">
         <v>334</v>
       </c>
-      <c r="N1" s="4" t="s">
+      <c r="N1" s="14" t="s">
         <v>335</v>
       </c>
-      <c r="O1" s="4" t="s">
+      <c r="O1" s="14" t="s">
         <v>336</v>
       </c>
-      <c r="P1" s="4" t="s">
+      <c r="P1" s="14" t="s">
         <v>337</v>
       </c>
-      <c r="Q1" s="5" t="s">
+      <c r="Q1" s="15" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="2" spans="1:17" ht="28.95" customHeight="1" thickTop="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="10">
+    <row r="2" spans="1:17" ht="30" customHeight="1" thickTop="1" x14ac:dyDescent="0.25">
+      <c r="A2" s="16">
         <v>0</v>
       </c>
-      <c r="B2" s="8"/>
+      <c r="B2" s="4"/>
       <c r="C2" s="3"/>
       <c r="D2" s="3"/>
       <c r="E2" s="3"/>
@@ -2554,13 +2579,13 @@
       <c r="N2" s="3"/>
       <c r="O2" s="3"/>
       <c r="P2" s="3"/>
-      <c r="Q2" s="15"/>
-    </row>
-    <row r="3" spans="1:17" ht="28.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A3" s="11">
+      <c r="Q2" s="8"/>
+    </row>
+    <row r="3" spans="1:17" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A3" s="17">
         <v>1</v>
       </c>
-      <c r="B3" s="9" t="s">
+      <c r="B3" s="5" t="s">
         <v>6</v>
       </c>
       <c r="C3" s="1" t="s">
@@ -2605,15 +2630,15 @@
       <c r="P3" s="1" t="s">
         <v>16</v>
       </c>
-      <c r="Q3" s="16" t="s">
+      <c r="Q3" s="9" t="s">
         <v>342</v>
       </c>
     </row>
-    <row r="4" spans="1:17" ht="28.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A4" s="11">
+    <row r="4" spans="1:17" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A4" s="17">
         <v>2</v>
       </c>
-      <c r="B4" s="9" t="s">
+      <c r="B4" s="5" t="s">
         <v>343</v>
       </c>
       <c r="C4" s="1" t="s">
@@ -2658,15 +2683,15 @@
       <c r="P4" s="1" t="s">
         <v>354</v>
       </c>
-      <c r="Q4" s="16" t="s">
+      <c r="Q4" s="9" t="s">
         <v>355</v>
       </c>
     </row>
-    <row r="5" spans="1:17" ht="28.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A5" s="11">
+    <row r="5" spans="1:17" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A5" s="17">
         <v>3</v>
       </c>
-      <c r="B5" s="9">
+      <c r="B5" s="5">
         <v>0</v>
       </c>
       <c r="C5" s="1">
@@ -2711,15 +2736,15 @@
       <c r="P5" s="1" t="s">
         <v>22</v>
       </c>
-      <c r="Q5" s="16" t="s">
+      <c r="Q5" s="9" t="s">
         <v>359</v>
       </c>
     </row>
-    <row r="6" spans="1:17" ht="28.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A6" s="11">
+    <row r="6" spans="1:17" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A6" s="17">
         <v>4</v>
       </c>
-      <c r="B6" s="9" t="s">
+      <c r="B6" s="5" t="s">
         <v>360</v>
       </c>
       <c r="C6" s="1" t="s">
@@ -2764,15 +2789,15 @@
       <c r="P6" s="1" t="s">
         <v>374</v>
       </c>
-      <c r="Q6" s="16" t="s">
+      <c r="Q6" s="9" t="s">
         <v>375</v>
       </c>
     </row>
-    <row r="7" spans="1:17" ht="28.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A7" s="11">
+    <row r="7" spans="1:17" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A7" s="17">
         <v>5</v>
       </c>
-      <c r="B7" s="9" t="s">
+      <c r="B7" s="5" t="s">
         <v>376</v>
       </c>
       <c r="C7" s="1" t="s">
@@ -2817,15 +2842,15 @@
       <c r="P7" s="1" t="s">
         <v>389</v>
       </c>
-      <c r="Q7" s="16" t="s">
+      <c r="Q7" s="9" t="s">
         <v>390</v>
       </c>
     </row>
-    <row r="8" spans="1:17" ht="28.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A8" s="11">
+    <row r="8" spans="1:17" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A8" s="17">
         <v>6</v>
       </c>
-      <c r="B8" s="9" t="s">
+      <c r="B8" s="5" t="s">
         <v>24</v>
       </c>
       <c r="C8" s="1" t="s">
@@ -2870,15 +2895,15 @@
       <c r="P8" s="1" t="s">
         <v>404</v>
       </c>
-      <c r="Q8" s="16" t="s">
+      <c r="Q8" s="9" t="s">
         <v>405</v>
       </c>
     </row>
-    <row r="9" spans="1:17" ht="28.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A9" s="11">
+    <row r="9" spans="1:17" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A9" s="17">
         <v>7</v>
       </c>
-      <c r="B9" s="9" t="s">
+      <c r="B9" s="5" t="s">
         <v>406</v>
       </c>
       <c r="C9" s="1" t="s">
@@ -2923,15 +2948,15 @@
       <c r="P9" s="1" t="s">
         <v>420</v>
       </c>
-      <c r="Q9" s="16" t="s">
+      <c r="Q9" s="9" t="s">
         <v>25</v>
       </c>
     </row>
-    <row r="10" spans="1:17" ht="28.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A10" s="11">
+    <row r="10" spans="1:17" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A10" s="17">
         <v>8</v>
       </c>
-      <c r="B10" s="9" t="s">
+      <c r="B10" s="5" t="s">
         <v>26</v>
       </c>
       <c r="C10" s="1" t="s">
@@ -2976,15 +3001,15 @@
       <c r="P10" s="1" t="s">
         <v>38</v>
       </c>
-      <c r="Q10" s="16" t="s">
+      <c r="Q10" s="9" t="s">
         <v>422</v>
       </c>
     </row>
-    <row r="11" spans="1:17" ht="28.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A11" s="11">
+    <row r="11" spans="1:17" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A11" s="17">
         <v>9</v>
       </c>
-      <c r="B11" s="9" t="s">
+      <c r="B11" s="5" t="s">
         <v>39</v>
       </c>
       <c r="C11" s="1" t="s">
@@ -3029,15 +3054,15 @@
       <c r="P11" s="1" t="s">
         <v>427</v>
       </c>
-      <c r="Q11" s="16" t="s">
+      <c r="Q11" s="9" t="s">
         <v>49</v>
       </c>
     </row>
-    <row r="12" spans="1:17" ht="28.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A12" s="11" t="s">
+    <row r="12" spans="1:17" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A12" s="17" t="s">
         <v>0</v>
       </c>
-      <c r="B12" s="9" t="s">
+      <c r="B12" s="5" t="s">
         <v>50</v>
       </c>
       <c r="C12" s="1" t="s">
@@ -3082,15 +3107,15 @@
       <c r="P12" s="1" t="s">
         <v>62</v>
       </c>
-      <c r="Q12" s="16" t="s">
+      <c r="Q12" s="9" t="s">
         <v>322</v>
       </c>
     </row>
-    <row r="13" spans="1:17" ht="28.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A13" s="11" t="s">
+    <row r="13" spans="1:17" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A13" s="17" t="s">
         <v>323</v>
       </c>
-      <c r="B13" s="9" t="s">
+      <c r="B13" s="5" t="s">
         <v>63</v>
       </c>
       <c r="C13" s="1" t="s">
@@ -3135,15 +3160,15 @@
       <c r="P13" s="1" t="s">
         <v>72</v>
       </c>
-      <c r="Q13" s="16" t="s">
+      <c r="Q13" s="9" t="s">
         <v>73</v>
       </c>
     </row>
-    <row r="14" spans="1:17" ht="28.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A14" s="11" t="s">
+    <row r="14" spans="1:17" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A14" s="17" t="s">
         <v>327</v>
       </c>
-      <c r="B14" s="9" t="s">
+      <c r="B14" s="5" t="s">
         <v>328</v>
       </c>
       <c r="C14" s="1" t="s">
@@ -3188,15 +3213,15 @@
       <c r="P14" s="1" t="s">
         <v>84</v>
       </c>
-      <c r="Q14" s="16" t="s">
+      <c r="Q14" s="9" t="s">
         <v>85</v>
       </c>
     </row>
-    <row r="15" spans="1:17" ht="28.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A15" s="11" t="s">
+    <row r="15" spans="1:17" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A15" s="17" t="s">
         <v>330</v>
       </c>
-      <c r="B15" s="9" t="s">
+      <c r="B15" s="5" t="s">
         <v>86</v>
       </c>
       <c r="C15" s="1" t="s">
@@ -3241,15 +3266,15 @@
       <c r="P15" s="1" t="s">
         <v>99</v>
       </c>
-      <c r="Q15" s="16" t="s">
+      <c r="Q15" s="9" t="s">
         <v>100</v>
       </c>
     </row>
-    <row r="16" spans="1:17" ht="28.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A16" s="11" t="s">
+    <row r="16" spans="1:17" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A16" s="17" t="s">
         <v>332</v>
       </c>
-      <c r="B16" s="9" t="s">
+      <c r="B16" s="5" t="s">
         <v>101</v>
       </c>
       <c r="C16" s="1" t="s">
@@ -3282,28 +3307,28 @@
       <c r="N16" s="1"/>
       <c r="O16" s="1"/>
       <c r="P16" s="1"/>
-      <c r="Q16" s="16"/>
-    </row>
-    <row r="17" spans="1:17" ht="28.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A17" s="12" t="s">
+      <c r="Q16" s="9"/>
+    </row>
+    <row r="17" spans="1:17" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A17" s="18" t="s">
         <v>5</v>
       </c>
-      <c r="B17" s="13"/>
-      <c r="C17" s="14"/>
-      <c r="D17" s="14"/>
-      <c r="E17" s="14"/>
-      <c r="F17" s="14"/>
-      <c r="G17" s="14"/>
-      <c r="H17" s="14"/>
-      <c r="I17" s="14"/>
-      <c r="J17" s="14"/>
-      <c r="K17" s="14"/>
-      <c r="L17" s="14"/>
-      <c r="M17" s="14"/>
-      <c r="N17" s="14"/>
-      <c r="O17" s="14"/>
-      <c r="P17" s="14"/>
-      <c r="Q17" s="17"/>
+      <c r="B17" s="6"/>
+      <c r="C17" s="7"/>
+      <c r="D17" s="7"/>
+      <c r="E17" s="7"/>
+      <c r="F17" s="7"/>
+      <c r="G17" s="7"/>
+      <c r="H17" s="7"/>
+      <c r="I17" s="7"/>
+      <c r="J17" s="7"/>
+      <c r="K17" s="7"/>
+      <c r="L17" s="7"/>
+      <c r="M17" s="7"/>
+      <c r="N17" s="7"/>
+      <c r="O17" s="7"/>
+      <c r="P17" s="7"/>
+      <c r="Q17" s="10"/>
     </row>
     <row r="18" spans="1:17" ht="28.95" customHeight="1" thickTop="1" x14ac:dyDescent="0.25"/>
   </sheetData>
@@ -3315,96 +3340,94 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
-  <dimension ref="A1:Q17"/>
+  <dimension ref="A1:Q18"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="S6" sqref="S6"/>
-    </sheetView>
+    <sheetView zoomScale="76" zoomScaleNormal="76" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultColWidth="7.77734375" defaultRowHeight="28.95" customHeight="1" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="7.77734375" style="21"/>
+    <col min="1" max="1" width="7.77734375" style="20"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:17" s="21" customFormat="1" ht="28.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A1" s="18" t="s">
+    <row r="1" spans="1:17" s="20" customFormat="1" ht="30" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A1" s="11" t="s">
         <v>110</v>
       </c>
-      <c r="B1" s="22">
+      <c r="B1" s="21">
         <v>0</v>
       </c>
-      <c r="C1" s="22">
+      <c r="C1" s="21">
         <v>1</v>
       </c>
-      <c r="D1" s="22">
+      <c r="D1" s="21">
         <v>2</v>
       </c>
-      <c r="E1" s="22">
+      <c r="E1" s="21">
         <v>3</v>
       </c>
-      <c r="F1" s="22">
+      <c r="F1" s="21">
         <v>4</v>
       </c>
-      <c r="G1" s="22">
+      <c r="G1" s="21">
         <v>5</v>
       </c>
-      <c r="H1" s="22">
+      <c r="H1" s="21">
         <v>6</v>
       </c>
-      <c r="I1" s="22">
+      <c r="I1" s="21">
         <v>7</v>
       </c>
-      <c r="J1" s="22">
+      <c r="J1" s="21">
         <v>8</v>
       </c>
-      <c r="K1" s="22">
+      <c r="K1" s="21">
         <v>9</v>
       </c>
-      <c r="L1" s="22" t="s">
+      <c r="L1" s="21" t="s">
         <v>0</v>
       </c>
-      <c r="M1" s="22" t="s">
+      <c r="M1" s="21" t="s">
         <v>1</v>
       </c>
-      <c r="N1" s="22" t="s">
+      <c r="N1" s="21" t="s">
         <v>2</v>
       </c>
-      <c r="O1" s="22" t="s">
+      <c r="O1" s="21" t="s">
         <v>3</v>
       </c>
-      <c r="P1" s="22" t="s">
+      <c r="P1" s="21" t="s">
         <v>4</v>
       </c>
-      <c r="Q1" s="23" t="s">
+      <c r="Q1" s="22" t="s">
         <v>109</v>
       </c>
     </row>
-    <row r="2" spans="1:17" ht="28.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="19">
+    <row r="2" spans="1:17" ht="30" customHeight="1" thickTop="1" x14ac:dyDescent="0.25">
+      <c r="A2" s="23">
         <v>0</v>
       </c>
-      <c r="B2" s="1"/>
-      <c r="C2" s="1"/>
-      <c r="D2" s="1"/>
-      <c r="E2" s="1"/>
-      <c r="F2" s="1"/>
-      <c r="G2" s="1"/>
-      <c r="H2" s="1"/>
-      <c r="I2" s="1"/>
-      <c r="J2" s="1"/>
-      <c r="K2" s="1"/>
-      <c r="L2" s="1"/>
-      <c r="M2" s="1"/>
-      <c r="N2" s="1"/>
-      <c r="O2" s="1"/>
-      <c r="P2" s="1"/>
-      <c r="Q2" s="1"/>
-    </row>
-    <row r="3" spans="1:17" ht="28.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A3" s="19">
+      <c r="B2" s="4"/>
+      <c r="C2" s="3"/>
+      <c r="D2" s="3"/>
+      <c r="E2" s="3"/>
+      <c r="F2" s="3"/>
+      <c r="G2" s="3"/>
+      <c r="H2" s="3"/>
+      <c r="I2" s="3"/>
+      <c r="J2" s="3"/>
+      <c r="K2" s="3"/>
+      <c r="L2" s="3"/>
+      <c r="M2" s="3"/>
+      <c r="N2" s="3"/>
+      <c r="O2" s="3"/>
+      <c r="P2" s="3"/>
+      <c r="Q2" s="8"/>
+    </row>
+    <row r="3" spans="1:17" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A3" s="23">
         <v>1</v>
       </c>
-      <c r="B3" s="1" t="s">
+      <c r="B3" s="5" t="s">
         <v>111</v>
       </c>
       <c r="C3" s="1" t="s">
@@ -3449,15 +3472,15 @@
       <c r="P3" s="1" t="s">
         <v>440</v>
       </c>
-      <c r="Q3" s="1" t="s">
+      <c r="Q3" s="9" t="s">
         <v>441</v>
       </c>
     </row>
-    <row r="4" spans="1:17" ht="28.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A4" s="19">
+    <row r="4" spans="1:17" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A4" s="23">
         <v>2</v>
       </c>
-      <c r="B4" s="1" t="s">
+      <c r="B4" s="5" t="s">
         <v>442</v>
       </c>
       <c r="C4" s="1" t="s">
@@ -3502,15 +3525,15 @@
       <c r="P4" s="1" t="s">
         <v>454</v>
       </c>
-      <c r="Q4" s="1" t="s">
+      <c r="Q4" s="9" t="s">
         <v>118</v>
       </c>
     </row>
-    <row r="5" spans="1:17" ht="28.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A5" s="19">
+    <row r="5" spans="1:17" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A5" s="23">
         <v>3</v>
       </c>
-      <c r="B5" s="1" t="s">
+      <c r="B5" s="5" t="s">
         <v>455</v>
       </c>
       <c r="C5" s="1" t="s">
@@ -3531,13 +3554,13 @@
       <c r="N5" s="1"/>
       <c r="O5" s="1"/>
       <c r="P5" s="1"/>
-      <c r="Q5" s="1"/>
-    </row>
-    <row r="6" spans="1:17" ht="28.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A6" s="19">
+      <c r="Q5" s="9"/>
+    </row>
+    <row r="6" spans="1:17" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A6" s="23">
         <v>4</v>
       </c>
-      <c r="B6" s="1"/>
+      <c r="B6" s="5"/>
       <c r="C6" s="1"/>
       <c r="D6" s="1"/>
       <c r="E6" s="1"/>
@@ -3552,13 +3575,13 @@
       <c r="N6" s="1"/>
       <c r="O6" s="1"/>
       <c r="P6" s="1"/>
-      <c r="Q6" s="1"/>
-    </row>
-    <row r="7" spans="1:17" ht="28.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A7" s="19">
+      <c r="Q6" s="9"/>
+    </row>
+    <row r="7" spans="1:17" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A7" s="23">
         <v>5</v>
       </c>
-      <c r="B7" s="1"/>
+      <c r="B7" s="5"/>
       <c r="C7" s="1"/>
       <c r="D7" s="1"/>
       <c r="E7" s="1"/>
@@ -3573,13 +3596,13 @@
       <c r="N7" s="1"/>
       <c r="O7" s="1"/>
       <c r="P7" s="1"/>
-      <c r="Q7" s="1"/>
-    </row>
-    <row r="8" spans="1:17" ht="28.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A8" s="19">
+      <c r="Q7" s="9"/>
+    </row>
+    <row r="8" spans="1:17" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A8" s="23">
         <v>6</v>
       </c>
-      <c r="B8" s="1"/>
+      <c r="B8" s="5"/>
       <c r="C8" s="1"/>
       <c r="D8" s="1"/>
       <c r="E8" s="1"/>
@@ -3594,13 +3617,13 @@
       <c r="N8" s="1"/>
       <c r="O8" s="1"/>
       <c r="P8" s="1"/>
-      <c r="Q8" s="1"/>
-    </row>
-    <row r="9" spans="1:17" ht="28.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A9" s="19">
+      <c r="Q8" s="9"/>
+    </row>
+    <row r="9" spans="1:17" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A9" s="23">
         <v>7</v>
       </c>
-      <c r="B9" s="1"/>
+      <c r="B9" s="5"/>
       <c r="C9" s="1"/>
       <c r="D9" s="1"/>
       <c r="E9" s="1"/>
@@ -3615,13 +3638,13 @@
       <c r="N9" s="1"/>
       <c r="O9" s="1"/>
       <c r="P9" s="1"/>
-      <c r="Q9" s="1"/>
-    </row>
-    <row r="10" spans="1:17" ht="28.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A10" s="19">
+      <c r="Q9" s="9"/>
+    </row>
+    <row r="10" spans="1:17" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A10" s="23">
         <v>8</v>
       </c>
-      <c r="B10" s="1"/>
+      <c r="B10" s="5"/>
       <c r="C10" s="1"/>
       <c r="D10" s="1"/>
       <c r="E10" s="1"/>
@@ -3636,13 +3659,13 @@
       <c r="N10" s="1"/>
       <c r="O10" s="1"/>
       <c r="P10" s="1"/>
-      <c r="Q10" s="1"/>
-    </row>
-    <row r="11" spans="1:17" ht="28.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A11" s="19">
+      <c r="Q10" s="9"/>
+    </row>
+    <row r="11" spans="1:17" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A11" s="23">
         <v>9</v>
       </c>
-      <c r="B11" s="1"/>
+      <c r="B11" s="5"/>
       <c r="C11" s="1"/>
       <c r="D11" s="1"/>
       <c r="E11" s="1"/>
@@ -3657,13 +3680,13 @@
       <c r="N11" s="1"/>
       <c r="O11" s="1"/>
       <c r="P11" s="1"/>
-      <c r="Q11" s="1"/>
-    </row>
-    <row r="12" spans="1:17" ht="28.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A12" s="19" t="s">
+      <c r="Q11" s="9"/>
+    </row>
+    <row r="12" spans="1:17" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A12" s="23" t="s">
         <v>0</v>
       </c>
-      <c r="B12" s="1"/>
+      <c r="B12" s="5"/>
       <c r="C12" s="1"/>
       <c r="D12" s="1"/>
       <c r="E12" s="1"/>
@@ -3678,13 +3701,13 @@
       <c r="N12" s="1"/>
       <c r="O12" s="1"/>
       <c r="P12" s="1"/>
-      <c r="Q12" s="1"/>
-    </row>
-    <row r="13" spans="1:17" ht="28.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A13" s="19" t="s">
+      <c r="Q12" s="9"/>
+    </row>
+    <row r="13" spans="1:17" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A13" s="23" t="s">
         <v>1</v>
       </c>
-      <c r="B13" s="1"/>
+      <c r="B13" s="5"/>
       <c r="C13" s="1"/>
       <c r="D13" s="1"/>
       <c r="E13" s="1"/>
@@ -3699,13 +3722,13 @@
       <c r="N13" s="1"/>
       <c r="O13" s="1"/>
       <c r="P13" s="1"/>
-      <c r="Q13" s="1"/>
-    </row>
-    <row r="14" spans="1:17" ht="28.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A14" s="19" t="s">
+      <c r="Q13" s="9"/>
+    </row>
+    <row r="14" spans="1:17" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A14" s="23" t="s">
         <v>2</v>
       </c>
-      <c r="B14" s="1"/>
+      <c r="B14" s="5"/>
       <c r="C14" s="1"/>
       <c r="D14" s="1"/>
       <c r="E14" s="1"/>
@@ -3720,13 +3743,13 @@
       <c r="N14" s="1"/>
       <c r="O14" s="1"/>
       <c r="P14" s="1"/>
-      <c r="Q14" s="1"/>
-    </row>
-    <row r="15" spans="1:17" ht="28.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A15" s="19" t="s">
+      <c r="Q14" s="9"/>
+    </row>
+    <row r="15" spans="1:17" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A15" s="23" t="s">
         <v>3</v>
       </c>
-      <c r="B15" s="1"/>
+      <c r="B15" s="5"/>
       <c r="C15" s="1"/>
       <c r="D15" s="1"/>
       <c r="E15" s="1"/>
@@ -3741,13 +3764,13 @@
       <c r="N15" s="1"/>
       <c r="O15" s="1"/>
       <c r="P15" s="1"/>
-      <c r="Q15" s="1"/>
-    </row>
-    <row r="16" spans="1:17" ht="28.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A16" s="19" t="s">
+      <c r="Q15" s="9"/>
+    </row>
+    <row r="16" spans="1:17" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A16" s="23" t="s">
         <v>4</v>
       </c>
-      <c r="B16" s="1"/>
+      <c r="B16" s="5"/>
       <c r="C16" s="1"/>
       <c r="D16" s="1"/>
       <c r="E16" s="1"/>
@@ -3762,29 +3785,30 @@
       <c r="N16" s="1"/>
       <c r="O16" s="1"/>
       <c r="P16" s="1"/>
-      <c r="Q16" s="1"/>
-    </row>
-    <row r="17" spans="1:17" ht="28.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A17" s="20" t="s">
+      <c r="Q16" s="9"/>
+    </row>
+    <row r="17" spans="1:17" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A17" s="24" t="s">
         <v>5</v>
       </c>
-      <c r="B17" s="1"/>
-      <c r="C17" s="1"/>
-      <c r="D17" s="1"/>
-      <c r="E17" s="1"/>
-      <c r="F17" s="1"/>
-      <c r="G17" s="1"/>
-      <c r="H17" s="1"/>
-      <c r="I17" s="1"/>
-      <c r="J17" s="1"/>
-      <c r="K17" s="1"/>
-      <c r="L17" s="1"/>
-      <c r="M17" s="1"/>
-      <c r="N17" s="1"/>
-      <c r="O17" s="1"/>
-      <c r="P17" s="1"/>
-      <c r="Q17" s="1"/>
-    </row>
+      <c r="B17" s="19"/>
+      <c r="C17" s="7"/>
+      <c r="D17" s="7"/>
+      <c r="E17" s="7"/>
+      <c r="F17" s="7"/>
+      <c r="G17" s="7"/>
+      <c r="H17" s="7"/>
+      <c r="I17" s="7"/>
+      <c r="J17" s="7"/>
+      <c r="K17" s="7"/>
+      <c r="L17" s="7"/>
+      <c r="M17" s="7"/>
+      <c r="N17" s="7"/>
+      <c r="O17" s="7"/>
+      <c r="P17" s="7"/>
+      <c r="Q17" s="10"/>
+    </row>
+    <row r="18" spans="1:17" ht="28.95" customHeight="1" thickTop="1" x14ac:dyDescent="0.25"/>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -3794,96 +3818,96 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
-  <dimension ref="A1:Q17"/>
+  <dimension ref="A1:Q18"/>
   <sheetViews>
-    <sheetView topLeftCell="A13" workbookViewId="0">
-      <selection activeCell="O22" sqref="O22"/>
+    <sheetView tabSelected="1" zoomScale="76" zoomScaleNormal="76" workbookViewId="0">
+      <selection activeCell="A2" sqref="A2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="7.77734375" defaultRowHeight="28.95" customHeight="1" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="7.77734375" defaultRowHeight="30" customHeight="1" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="7.77734375" style="21"/>
+    <col min="1" max="1" width="7.77734375" style="20"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:17" s="21" customFormat="1" ht="28.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A1" s="18" t="s">
+    <row r="1" spans="1:17" s="20" customFormat="1" ht="30" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A1" s="11" t="s">
         <v>120</v>
       </c>
-      <c r="B1" s="22">
+      <c r="B1" s="21">
         <v>0</v>
       </c>
-      <c r="C1" s="22">
+      <c r="C1" s="21">
         <v>1</v>
       </c>
-      <c r="D1" s="22">
+      <c r="D1" s="21">
         <v>2</v>
       </c>
-      <c r="E1" s="22">
+      <c r="E1" s="21">
         <v>3</v>
       </c>
-      <c r="F1" s="22">
+      <c r="F1" s="21">
         <v>4</v>
       </c>
-      <c r="G1" s="22">
+      <c r="G1" s="21">
         <v>5</v>
       </c>
-      <c r="H1" s="22">
+      <c r="H1" s="21">
         <v>6</v>
       </c>
-      <c r="I1" s="22">
+      <c r="I1" s="21">
         <v>7</v>
       </c>
-      <c r="J1" s="22">
+      <c r="J1" s="21">
         <v>8</v>
       </c>
-      <c r="K1" s="22">
+      <c r="K1" s="21">
         <v>9</v>
       </c>
-      <c r="L1" s="22" t="s">
+      <c r="L1" s="21" t="s">
         <v>0</v>
       </c>
-      <c r="M1" s="22" t="s">
+      <c r="M1" s="21" t="s">
         <v>1</v>
       </c>
-      <c r="N1" s="22" t="s">
+      <c r="N1" s="21" t="s">
         <v>2</v>
       </c>
-      <c r="O1" s="22" t="s">
+      <c r="O1" s="21" t="s">
         <v>3</v>
       </c>
-      <c r="P1" s="22" t="s">
+      <c r="P1" s="21" t="s">
         <v>4</v>
       </c>
       <c r="Q1" s="22" t="s">
         <v>119</v>
       </c>
     </row>
-    <row r="2" spans="1:17" ht="28.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="19">
+    <row r="2" spans="1:17" ht="30" customHeight="1" thickTop="1" x14ac:dyDescent="0.25">
+      <c r="A2" s="23">
         <v>0</v>
       </c>
-      <c r="B2" s="1"/>
-      <c r="C2" s="1"/>
-      <c r="D2" s="1"/>
-      <c r="E2" s="1"/>
-      <c r="F2" s="1"/>
-      <c r="G2" s="1"/>
-      <c r="H2" s="1"/>
-      <c r="I2" s="1"/>
-      <c r="J2" s="1"/>
-      <c r="K2" s="1"/>
-      <c r="L2" s="1"/>
-      <c r="M2" s="1"/>
-      <c r="N2" s="1"/>
-      <c r="O2" s="1"/>
-      <c r="P2" s="1"/>
-      <c r="Q2" s="1"/>
-    </row>
-    <row r="3" spans="1:17" ht="28.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A3" s="19">
+      <c r="B2" s="4"/>
+      <c r="C2" s="3"/>
+      <c r="D2" s="3"/>
+      <c r="E2" s="3"/>
+      <c r="F2" s="3"/>
+      <c r="G2" s="3"/>
+      <c r="H2" s="3"/>
+      <c r="I2" s="3"/>
+      <c r="J2" s="3"/>
+      <c r="K2" s="3"/>
+      <c r="L2" s="3"/>
+      <c r="M2" s="3"/>
+      <c r="N2" s="3"/>
+      <c r="O2" s="3"/>
+      <c r="P2" s="3"/>
+      <c r="Q2" s="8"/>
+    </row>
+    <row r="3" spans="1:17" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A3" s="23">
         <v>1</v>
       </c>
-      <c r="B3" s="1" t="s">
+      <c r="B3" s="5" t="s">
         <v>121</v>
       </c>
       <c r="C3" s="1" t="s">
@@ -3928,15 +3952,15 @@
       <c r="P3" s="1" t="s">
         <v>125</v>
       </c>
-      <c r="Q3" s="1" t="s">
+      <c r="Q3" s="9" t="s">
         <v>126</v>
       </c>
     </row>
-    <row r="4" spans="1:17" ht="28.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A4" s="19">
+    <row r="4" spans="1:17" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A4" s="23">
         <v>2</v>
       </c>
-      <c r="B4" s="1" t="s">
+      <c r="B4" s="5" t="s">
         <v>127</v>
       </c>
       <c r="C4" s="1" t="s">
@@ -3981,15 +4005,15 @@
       <c r="P4" s="1" t="s">
         <v>132</v>
       </c>
-      <c r="Q4" s="1" t="s">
+      <c r="Q4" s="9" t="s">
         <v>476</v>
       </c>
     </row>
-    <row r="5" spans="1:17" ht="28.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A5" s="19">
+    <row r="5" spans="1:17" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A5" s="23">
         <v>3</v>
       </c>
-      <c r="B5" s="1" t="s">
+      <c r="B5" s="5" t="s">
         <v>477</v>
       </c>
       <c r="C5" s="1" t="s">
@@ -4034,15 +4058,15 @@
       <c r="P5" s="1" t="s">
         <v>144</v>
       </c>
-      <c r="Q5" s="1" t="s">
+      <c r="Q5" s="9" t="s">
         <v>145</v>
       </c>
     </row>
-    <row r="6" spans="1:17" ht="28.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A6" s="19">
+    <row r="6" spans="1:17" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A6" s="23">
         <v>4</v>
       </c>
-      <c r="B6" s="1" t="s">
+      <c r="B6" s="5" t="s">
         <v>146</v>
       </c>
       <c r="C6" s="1" t="s">
@@ -4087,15 +4111,15 @@
       <c r="P6" s="1" t="s">
         <v>160</v>
       </c>
-      <c r="Q6" s="1" t="s">
+      <c r="Q6" s="9" t="s">
         <v>161</v>
       </c>
     </row>
-    <row r="7" spans="1:17" ht="28.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A7" s="19">
+    <row r="7" spans="1:17" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A7" s="23">
         <v>5</v>
       </c>
-      <c r="B7" s="1" t="s">
+      <c r="B7" s="5" t="s">
         <v>162</v>
       </c>
       <c r="C7" s="1" t="s">
@@ -4140,15 +4164,15 @@
       <c r="P7" s="1" t="s">
         <v>176</v>
       </c>
-      <c r="Q7" s="1" t="s">
+      <c r="Q7" s="9" t="s">
         <v>177</v>
       </c>
     </row>
-    <row r="8" spans="1:17" ht="28.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A8" s="19">
+    <row r="8" spans="1:17" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A8" s="23">
         <v>6</v>
       </c>
-      <c r="B8" s="1" t="s">
+      <c r="B8" s="5" t="s">
         <v>178</v>
       </c>
       <c r="C8" s="1" t="s">
@@ -4193,15 +4217,15 @@
       <c r="P8" s="1" t="s">
         <v>256</v>
       </c>
-      <c r="Q8" s="1" t="s">
+      <c r="Q8" s="9" t="s">
         <v>257</v>
       </c>
     </row>
-    <row r="9" spans="1:17" ht="28.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A9" s="19">
+    <row r="9" spans="1:17" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A9" s="23">
         <v>7</v>
       </c>
-      <c r="B9" s="1" t="s">
+      <c r="B9" s="5" t="s">
         <v>258</v>
       </c>
       <c r="C9" s="1" t="s">
@@ -4246,15 +4270,15 @@
       <c r="P9" s="1" t="s">
         <v>272</v>
       </c>
-      <c r="Q9" s="1" t="s">
+      <c r="Q9" s="9" t="s">
         <v>273</v>
       </c>
     </row>
-    <row r="10" spans="1:17" ht="28.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A10" s="19">
+    <row r="10" spans="1:17" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A10" s="23">
         <v>8</v>
       </c>
-      <c r="B10" s="1" t="s">
+      <c r="B10" s="5" t="s">
         <v>189</v>
       </c>
       <c r="C10" s="1" t="s">
@@ -4299,15 +4323,15 @@
       <c r="P10" s="1" t="s">
         <v>284</v>
       </c>
-      <c r="Q10" s="1" t="s">
+      <c r="Q10" s="9" t="s">
         <v>285</v>
       </c>
     </row>
-    <row r="11" spans="1:17" ht="28.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A11" s="19">
+    <row r="11" spans="1:17" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A11" s="23">
         <v>9</v>
       </c>
-      <c r="B11" s="1" t="s">
+      <c r="B11" s="5" t="s">
         <v>286</v>
       </c>
       <c r="C11" s="1" t="s">
@@ -4352,15 +4376,15 @@
       <c r="P11" s="1" t="s">
         <v>197</v>
       </c>
-      <c r="Q11" s="1" t="s">
+      <c r="Q11" s="9" t="s">
         <v>198</v>
       </c>
     </row>
-    <row r="12" spans="1:17" ht="28.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A12" s="19" t="s">
+    <row r="12" spans="1:17" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A12" s="23" t="s">
         <v>0</v>
       </c>
-      <c r="B12" s="1" t="s">
+      <c r="B12" s="5" t="s">
         <v>199</v>
       </c>
       <c r="C12" s="1" t="s">
@@ -4405,15 +4429,15 @@
       <c r="P12" s="1" t="s">
         <v>213</v>
       </c>
-      <c r="Q12" s="1" t="s">
+      <c r="Q12" s="9" t="s">
         <v>214</v>
       </c>
     </row>
-    <row r="13" spans="1:17" ht="28.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A13" s="19" t="s">
+    <row r="13" spans="1:17" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A13" s="23" t="s">
         <v>1</v>
       </c>
-      <c r="B13" s="1" t="s">
+      <c r="B13" s="5" t="s">
         <v>215</v>
       </c>
       <c r="C13" s="1" t="s">
@@ -4458,15 +4482,15 @@
       <c r="P13" s="1" t="s">
         <v>228</v>
       </c>
-      <c r="Q13" s="1" t="s">
+      <c r="Q13" s="9" t="s">
         <v>229</v>
       </c>
     </row>
-    <row r="14" spans="1:17" ht="28.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A14" s="19" t="s">
+    <row r="14" spans="1:17" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A14" s="23" t="s">
         <v>2</v>
       </c>
-      <c r="B14" s="1" t="s">
+      <c r="B14" s="5" t="s">
         <v>230</v>
       </c>
       <c r="C14" s="1" t="s">
@@ -4511,15 +4535,15 @@
       <c r="P14" s="1" t="s">
         <v>244</v>
       </c>
-      <c r="Q14" s="1" t="s">
+      <c r="Q14" s="9" t="s">
         <v>245</v>
       </c>
     </row>
-    <row r="15" spans="1:17" ht="28.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A15" s="19" t="s">
+    <row r="15" spans="1:17" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A15" s="23" t="s">
         <v>3</v>
       </c>
-      <c r="B15" s="1" t="s">
+      <c r="B15" s="5" t="s">
         <v>296</v>
       </c>
       <c r="C15" s="1" t="s">
@@ -4564,15 +4588,15 @@
       <c r="P15" s="1" t="s">
         <v>309</v>
       </c>
-      <c r="Q15" s="1" t="s">
+      <c r="Q15" s="9" t="s">
         <v>310</v>
       </c>
     </row>
-    <row r="16" spans="1:17" ht="28.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A16" s="19" t="s">
+    <row r="16" spans="1:17" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A16" s="23" t="s">
         <v>4</v>
       </c>
-      <c r="B16" s="1" t="s">
+      <c r="B16" s="5" t="s">
         <v>311</v>
       </c>
       <c r="C16" s="1" t="s">
@@ -4617,31 +4641,32 @@
       <c r="P16" s="1" t="s">
         <v>252</v>
       </c>
-      <c r="Q16" s="1" t="s">
+      <c r="Q16" s="9" t="s">
         <v>17</v>
       </c>
     </row>
-    <row r="17" spans="1:17" ht="28.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A17" s="20" t="s">
+    <row r="17" spans="1:17" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A17" s="24" t="s">
         <v>5</v>
       </c>
-      <c r="B17" s="1"/>
-      <c r="C17" s="1"/>
-      <c r="D17" s="1"/>
-      <c r="E17" s="1"/>
-      <c r="F17" s="1"/>
-      <c r="G17" s="1"/>
-      <c r="H17" s="1"/>
-      <c r="I17" s="1"/>
-      <c r="J17" s="1"/>
-      <c r="K17" s="1"/>
-      <c r="L17" s="1"/>
-      <c r="M17" s="1"/>
-      <c r="N17" s="1"/>
-      <c r="O17" s="1"/>
-      <c r="P17" s="1"/>
-      <c r="Q17" s="1"/>
-    </row>
+      <c r="B17" s="19"/>
+      <c r="C17" s="7"/>
+      <c r="D17" s="7"/>
+      <c r="E17" s="7"/>
+      <c r="F17" s="7"/>
+      <c r="G17" s="7"/>
+      <c r="H17" s="7"/>
+      <c r="I17" s="7"/>
+      <c r="J17" s="7"/>
+      <c r="K17" s="7"/>
+      <c r="L17" s="7"/>
+      <c r="M17" s="7"/>
+      <c r="N17" s="7"/>
+      <c r="O17" s="7"/>
+      <c r="P17" s="7"/>
+      <c r="Q17" s="10"/>
+    </row>
+    <row r="18" spans="1:17" ht="30" customHeight="1" thickTop="1" x14ac:dyDescent="0.25"/>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
